--- a/results/mp/deberta/corona/confidence/126/stop-words-topk-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-topk-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,181 +46,199 @@
     <t>panic</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>hands</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>health</t>
+    <t>co</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>shop</t>
   </si>
   <si>
     <t>san</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>consumer</t>
+    <t>workers</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>toilet</t>
   </si>
   <si>
     <t>supermarket</t>
   </si>
   <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
     <t>corona</t>
   </si>
   <si>
-    <t>workers</t>
-  </si>
-  <si>
-    <t>stay</t>
+    <t>time</t>
   </si>
   <si>
     <t>prices</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>get</t>
   </si>
   <si>
     <t>go</t>
@@ -587,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q63"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -595,10 +613,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -656,13 +674,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.565068493150685</v>
+        <v>0.547945205479452</v>
       </c>
       <c r="C3">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D3">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -674,28 +692,28 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K3">
-        <v>0.9482758620689655</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M3">
         <v>56</v>
       </c>
       <c r="N3">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -706,191 +724,167 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.2213592233009709</v>
+        <v>0.2325581395348837</v>
       </c>
       <c r="C4">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D4">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4">
+        <v>0.8916666666666667</v>
+      </c>
+      <c r="L4">
+        <v>107</v>
+      </c>
+      <c r="M4">
+        <v>107</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>13</v>
       </c>
-      <c r="K4">
-        <v>0.8717948717948718</v>
-      </c>
-      <c r="L4">
-        <v>102</v>
-      </c>
-      <c r="M4">
-        <v>105</v>
-      </c>
-      <c r="N4">
-        <v>0.97</v>
-      </c>
-      <c r="O4">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P4" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>15</v>
-      </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>0.01510912143256855</v>
-      </c>
-      <c r="C5">
-        <v>27</v>
-      </c>
-      <c r="D5">
-        <v>383</v>
-      </c>
-      <c r="E5">
-        <v>0.93</v>
-      </c>
-      <c r="F5">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1760</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K5">
-        <v>0.8666666666666667</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N5">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="J6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K6">
-        <v>0.84251968503937</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L6">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="M6">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="N6">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="J7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K7">
-        <v>0.7981651376146789</v>
+        <v>0.84375</v>
       </c>
       <c r="L7">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="M7">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="N7">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K8">
-        <v>0.7875</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L8">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="M8">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="N8">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K9">
-        <v>0.7619047619047619</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L9">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="M9">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -902,99 +896,99 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K10">
-        <v>0.7515923566878981</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L10">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="M10">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="N10">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K11">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="L11">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="M11">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="N11">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K12">
-        <v>0.7017543859649122</v>
+        <v>0.7452830188679245</v>
       </c>
       <c r="L12">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="M12">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="N12">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K13">
-        <v>0.6944444444444444</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L13">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M13">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1006,21 +1000,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K14">
-        <v>0.6901408450704225</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L14">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="M14">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1032,255 +1026,255 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>44</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K15">
-        <v>0.6782608695652174</v>
+        <v>0.725</v>
       </c>
       <c r="L15">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="M15">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="N15">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K16">
-        <v>0.6111111111111112</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L16">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="M16">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="N16">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K17">
-        <v>0.5683890577507599</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="L17">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="M17">
-        <v>198</v>
+        <v>100</v>
       </c>
       <c r="N17">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>142</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K18">
-        <v>0.5652173913043478</v>
+        <v>0.6652719665271967</v>
       </c>
       <c r="L18">
-        <v>26</v>
+        <v>159</v>
       </c>
       <c r="M18">
-        <v>28</v>
+        <v>159</v>
       </c>
       <c r="N18">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K19">
-        <v>0.5144356955380578</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L19">
-        <v>196</v>
+        <v>60</v>
       </c>
       <c r="M19">
-        <v>198</v>
+        <v>60</v>
       </c>
       <c r="N19">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>185</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K20">
-        <v>0.5068965517241379</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="L20">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="M20">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="N20">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>143</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K21">
-        <v>0.5</v>
+        <v>0.5941176470588235</v>
       </c>
       <c r="L21">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="M21">
-        <v>33</v>
+        <v>202</v>
       </c>
       <c r="N21">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>32</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K22">
-        <v>0.4927536231884058</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L22">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M22">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N22">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K23">
-        <v>0.4204545454545455</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L23">
         <v>37</v>
       </c>
       <c r="M23">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N23">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>51</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K24">
-        <v>0.40625</v>
+        <v>0.5274151436031331</v>
       </c>
       <c r="L24">
-        <v>26</v>
+        <v>202</v>
       </c>
       <c r="M24">
-        <v>26</v>
+        <v>202</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1292,177 +1286,177 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>38</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K25">
-        <v>0.3286384976525822</v>
+        <v>0.4915254237288136</v>
       </c>
       <c r="L25">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="M25">
-        <v>72</v>
+        <v>145</v>
       </c>
       <c r="N25">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K26">
-        <v>0.2916666666666667</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L26">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="M26">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="N26">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K27">
-        <v>0.2784810126582278</v>
+        <v>0.421875</v>
       </c>
       <c r="L27">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="M27">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="N27">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>114</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K28">
-        <v>0.2749391727493917</v>
+        <v>0.3505154639175257</v>
       </c>
       <c r="L28">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="M28">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="N28">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>298</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K29">
-        <v>0.2641509433962264</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M29">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N29">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>78</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K30">
-        <v>0.2546583850931677</v>
+        <v>0.3395348837209302</v>
       </c>
       <c r="L30">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="M30">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="N30">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>120</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K31">
-        <v>0.2434782608695652</v>
+        <v>0.3086124401913876</v>
       </c>
       <c r="L31">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="M31">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1474,99 +1468,99 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>87</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K32">
-        <v>0.2356687898089172</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="L32">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M32">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N32">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>120</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K33">
-        <v>0.2289719626168224</v>
+        <v>0.2967032967032967</v>
       </c>
       <c r="L33">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="M33">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="N33">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>165</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K34">
-        <v>0.2170542635658915</v>
+        <v>0.2955974842767295</v>
       </c>
       <c r="L34">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="M34">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="N34">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K35">
-        <v>0.205761316872428</v>
+        <v>0.2830188679245283</v>
       </c>
       <c r="L35">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="M35">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1578,47 +1572,47 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>386</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K36">
-        <v>0.2043795620437956</v>
+        <v>0.2700729927007299</v>
       </c>
       <c r="L36">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="M36">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="N36">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>327</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K37">
-        <v>0.2014925373134328</v>
+        <v>0.2638036809815951</v>
       </c>
       <c r="L37">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="M37">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1630,15 +1624,15 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>107</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K38">
-        <v>0.1951219512195122</v>
+        <v>0.2461538461538462</v>
       </c>
       <c r="L38">
         <v>32</v>
@@ -1656,137 +1650,137 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>132</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K39">
-        <v>0.1940298507462687</v>
+        <v>0.2377622377622378</v>
       </c>
       <c r="L39">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M39">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N39">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K40">
-        <v>0.1780821917808219</v>
+        <v>0.2283653846153846</v>
       </c>
       <c r="L40">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="M40">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="N40">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>120</v>
+        <v>321</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K41">
-        <v>0.1694201490119857</v>
+        <v>0.2238805970149254</v>
       </c>
       <c r="L41">
-        <v>523</v>
+        <v>30</v>
       </c>
       <c r="M41">
-        <v>543</v>
+        <v>30</v>
       </c>
       <c r="N41">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>2564</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K42">
-        <v>0.1686046511627907</v>
+        <v>0.2236286919831224</v>
       </c>
       <c r="L42">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="M42">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="N42">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>286</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="K43">
-        <v>0.168241965973535</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="L43">
-        <v>356</v>
+        <v>25</v>
       </c>
       <c r="M43">
-        <v>383</v>
+        <v>25</v>
       </c>
       <c r="N43">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>1760</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1794,25 +1788,25 @@
         <v>52</v>
       </c>
       <c r="K44">
-        <v>0.1659142212189616</v>
+        <v>0.2180451127819549</v>
       </c>
       <c r="L44">
-        <v>147</v>
+        <v>29</v>
       </c>
       <c r="M44">
-        <v>155</v>
+        <v>29</v>
       </c>
       <c r="N44">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>739</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1820,25 +1814,25 @@
         <v>53</v>
       </c>
       <c r="K45">
-        <v>0.1631284916201117</v>
+        <v>0.213953488372093</v>
       </c>
       <c r="L45">
-        <v>146</v>
+        <v>46</v>
       </c>
       <c r="M45">
-        <v>152</v>
+        <v>46</v>
       </c>
       <c r="N45">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>749</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1846,25 +1840,25 @@
         <v>54</v>
       </c>
       <c r="K46">
-        <v>0.1584699453551913</v>
+        <v>0.2101449275362319</v>
       </c>
       <c r="L46">
         <v>29</v>
       </c>
       <c r="M46">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N46">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>154</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1872,25 +1866,25 @@
         <v>55</v>
       </c>
       <c r="K47">
-        <v>0.1574468085106383</v>
+        <v>0.2043478260869565</v>
       </c>
       <c r="L47">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="M47">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="N47">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>198</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1898,25 +1892,25 @@
         <v>56</v>
       </c>
       <c r="K48">
-        <v>0.1551724137931035</v>
+        <v>0.2005730659025788</v>
       </c>
       <c r="L48">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="M48">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="N48">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>539</v>
+        <v>279</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1924,25 +1918,25 @@
         <v>57</v>
       </c>
       <c r="K49">
-        <v>0.1546511627906977</v>
+        <v>0.187010078387458</v>
       </c>
       <c r="L49">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="M49">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="N49">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="O49">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1950,25 +1944,25 @@
         <v>58</v>
       </c>
       <c r="K50">
-        <v>0.1533742331288344</v>
+        <v>0.1836734693877551</v>
       </c>
       <c r="L50">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M50">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N50">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>138</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1976,25 +1970,25 @@
         <v>59</v>
       </c>
       <c r="K51">
-        <v>0.1515151515151515</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L51">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="M51">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="N51">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>224</v>
+        <v>252</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2002,25 +1996,25 @@
         <v>60</v>
       </c>
       <c r="K52">
-        <v>0.1507692307692308</v>
+        <v>0.1798002219755827</v>
       </c>
       <c r="L52">
-        <v>49</v>
+        <v>162</v>
       </c>
       <c r="M52">
-        <v>51</v>
+        <v>162</v>
       </c>
       <c r="N52">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>276</v>
+        <v>739</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2028,13 +2022,13 @@
         <v>61</v>
       </c>
       <c r="K53">
-        <v>0.1484098939929329</v>
+        <v>0.1789719626168224</v>
       </c>
       <c r="L53">
-        <v>84</v>
+        <v>383</v>
       </c>
       <c r="M53">
-        <v>85</v>
+        <v>386</v>
       </c>
       <c r="N53">
         <v>0.99</v>
@@ -2046,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>482</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2054,25 +2048,25 @@
         <v>62</v>
       </c>
       <c r="K54">
-        <v>0.1397379912663755</v>
+        <v>0.1761674718196457</v>
       </c>
       <c r="L54">
-        <v>32</v>
+        <v>547</v>
       </c>
       <c r="M54">
-        <v>33</v>
+        <v>549</v>
       </c>
       <c r="N54">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>197</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2080,25 +2074,25 @@
         <v>63</v>
       </c>
       <c r="K55">
-        <v>0.1286880100439423</v>
+        <v>0.1723076923076923</v>
       </c>
       <c r="L55">
-        <v>410</v>
+        <v>112</v>
       </c>
       <c r="M55">
-        <v>425</v>
+        <v>112</v>
       </c>
       <c r="N55">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>2776</v>
+        <v>538</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2106,25 +2100,25 @@
         <v>64</v>
       </c>
       <c r="K56">
-        <v>0.1137123745819398</v>
+        <v>0.1696969696969697</v>
       </c>
       <c r="L56">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M56">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N56">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>265</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2132,13 +2126,13 @@
         <v>65</v>
       </c>
       <c r="K57">
-        <v>0.1136363636363636</v>
+        <v>0.1675675675675676</v>
       </c>
       <c r="L57">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M57">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2150,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>273</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2158,25 +2152,25 @@
         <v>66</v>
       </c>
       <c r="K58">
-        <v>0.1076388888888889</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L58">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="M58">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="N58">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>1028</v>
+        <v>405</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2184,22 +2178,22 @@
         <v>67</v>
       </c>
       <c r="K59">
-        <v>0.1067615658362989</v>
+        <v>0.1605351170568562</v>
       </c>
       <c r="L59">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="M59">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
         <v>251</v>
@@ -2210,13 +2204,13 @@
         <v>68</v>
       </c>
       <c r="K60">
-        <v>0.08169934640522876</v>
+        <v>0.1559633027522936</v>
       </c>
       <c r="L60">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="M60">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2228,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2236,25 +2230,25 @@
         <v>69</v>
       </c>
       <c r="K61">
-        <v>0.07262569832402235</v>
+        <v>0.149812734082397</v>
       </c>
       <c r="L61">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="M61">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="N61">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>332</v>
+        <v>227</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2262,25 +2256,25 @@
         <v>70</v>
       </c>
       <c r="K62">
-        <v>0.07011070110701106</v>
+        <v>0.1484098939929329</v>
       </c>
       <c r="L62">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="M62">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="N62">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="O62">
-        <v>0.06999999999999995</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>504</v>
+        <v>482</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2288,25 +2282,181 @@
         <v>71</v>
       </c>
       <c r="K63">
-        <v>0.04821802935010482</v>
+        <v>0.1374133949191686</v>
       </c>
       <c r="L63">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="M63">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N63">
-        <v>0.77</v>
+        <v>0.99</v>
       </c>
       <c r="O63">
-        <v>0.23</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P63" t="b">
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>908</v>
+        <v>747</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K64">
+        <v>0.1295369211514393</v>
+      </c>
+      <c r="L64">
+        <v>414</v>
+      </c>
+      <c r="M64">
+        <v>419</v>
+      </c>
+      <c r="N64">
+        <v>0.99</v>
+      </c>
+      <c r="O64">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K65">
+        <v>0.103202846975089</v>
+      </c>
+      <c r="L65">
+        <v>29</v>
+      </c>
+      <c r="M65">
+        <v>29</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
+      <c r="J66" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K66">
+        <v>0.09905254091300603</v>
+      </c>
+      <c r="L66">
+        <v>115</v>
+      </c>
+      <c r="M66">
+        <v>115</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17">
+      <c r="J67" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K67">
+        <v>0.08611111111111111</v>
+      </c>
+      <c r="L67">
+        <v>31</v>
+      </c>
+      <c r="M67">
+        <v>31</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
+      <c r="J68" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K68">
+        <v>0.08118081180811808</v>
+      </c>
+      <c r="L68">
+        <v>44</v>
+      </c>
+      <c r="M68">
+        <v>47</v>
+      </c>
+      <c r="N68">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O68">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P68" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="69" spans="10:17">
+      <c r="J69" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K69">
+        <v>0.06308169596690796</v>
+      </c>
+      <c r="L69">
+        <v>61</v>
+      </c>
+      <c r="M69">
+        <v>62</v>
+      </c>
+      <c r="N69">
+        <v>0.98</v>
+      </c>
+      <c r="O69">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P69" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>906</v>
       </c>
     </row>
   </sheetData>
